--- a/teaching/traditional_assets/database/data/spain/spain_retail_general.xlsx
+++ b/teaching/traditional_assets/database/data/spain/spain_retail_general.xlsx
@@ -590,26 +590,26 @@
           <t>Retail (General)</t>
         </is>
       </c>
-      <c r="D2">
-        <v>-0.0669</v>
+      <c r="F2">
+        <v>-1.405</v>
       </c>
       <c r="G2">
-        <v>0.024461176845544</v>
+        <v>-0.02119535477594698</v>
       </c>
       <c r="H2">
-        <v>0.024461176845544</v>
+        <v>-0.02119535477594698</v>
       </c>
       <c r="I2">
-        <v>-0.04193712938382928</v>
+        <v>-0.02793018773381192</v>
       </c>
       <c r="J2">
-        <v>-0.04193712938382928</v>
+        <v>-0.02793018773381192</v>
       </c>
       <c r="K2">
-        <v>-884.4</v>
+        <v>-624.8</v>
       </c>
       <c r="L2">
-        <v>-0.1174455200988008</v>
+        <v>-0.0759773818933544</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>134.4</v>
+        <v>486.6</v>
       </c>
       <c r="V2">
-        <v>0.1756862745098039</v>
+        <v>0.5203165098374679</v>
       </c>
       <c r="W2">
-        <v>-3.971261787157611</v>
+        <v>0.8615554329840043</v>
       </c>
       <c r="X2">
-        <v>0.2562109951282712</v>
+        <v>0.1735832634131558</v>
       </c>
       <c r="Y2">
-        <v>-4.227472782285883</v>
+        <v>0.6879721695708485</v>
       </c>
       <c r="Z2">
-        <v>6.052829562323388</v>
+        <v>3.979492570928282</v>
       </c>
       <c r="AA2">
-        <v>-0.2538382964934227</v>
+        <v>-0.1111479745913368</v>
       </c>
       <c r="AB2">
-        <v>0.1191659936080717</v>
+        <v>0.1119058050041281</v>
       </c>
       <c r="AC2">
-        <v>-0.3730042901014944</v>
+        <v>-0.2230537795954648</v>
       </c>
       <c r="AD2">
-        <v>2922.3</v>
+        <v>2659.5</v>
       </c>
       <c r="AE2">
-        <v>230.4958269952479</v>
+        <v>3.769494145011719</v>
       </c>
       <c r="AF2">
-        <v>3152.795826995248</v>
+        <v>2663.269494145012</v>
       </c>
       <c r="AG2">
-        <v>3018.395826995248</v>
+        <v>2176.669494145012</v>
       </c>
       <c r="AH2">
-        <v>0.8047371446136037</v>
+        <v>0.7401117331905571</v>
       </c>
       <c r="AI2">
-        <v>1.298731770723801</v>
+        <v>1.337741877093137</v>
       </c>
       <c r="AJ2">
-        <v>0.7978006967863157</v>
+        <v>0.6994732581942846</v>
       </c>
       <c r="AK2">
-        <v>1.316239891710523</v>
+        <v>1.446994373426535</v>
       </c>
       <c r="AL2">
-        <v>77.90000000000001</v>
+        <v>133</v>
       </c>
       <c r="AM2">
-        <v>77.90000000000001</v>
+        <v>130.06</v>
       </c>
       <c r="AN2">
-        <v>12.87356828193833</v>
+        <v>-47.04581638068282</v>
       </c>
       <c r="AO2">
-        <v>-4.811296534017972</v>
+        <v>-1.740601503759398</v>
       </c>
       <c r="AP2">
-        <v>13.29689791627863</v>
+        <v>-38.50467882796766</v>
       </c>
       <c r="AQ2">
-        <v>-4.811296534017972</v>
+        <v>-1.779947716438567</v>
       </c>
     </row>
     <row r="3">
@@ -718,26 +718,26 @@
           <t>Retail (General)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>-0.0669</v>
+      <c r="F3">
+        <v>-1.405</v>
       </c>
       <c r="G3">
-        <v>0.024461176845544</v>
+        <v>-0.02119535477594698</v>
       </c>
       <c r="H3">
-        <v>0.024461176845544</v>
+        <v>-0.02119535477594698</v>
       </c>
       <c r="I3">
-        <v>-0.04193712938382928</v>
+        <v>-0.02793018773381192</v>
       </c>
       <c r="J3">
-        <v>-0.04193712938382928</v>
+        <v>-0.02793018773381192</v>
       </c>
       <c r="K3">
-        <v>-884.4</v>
+        <v>-624.8</v>
       </c>
       <c r="L3">
-        <v>-0.1174455200988008</v>
+        <v>-0.0759773818933544</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>134.4</v>
+        <v>486.6</v>
       </c>
       <c r="V3">
-        <v>0.1756862745098039</v>
+        <v>0.5203165098374679</v>
       </c>
       <c r="W3">
-        <v>-3.971261787157611</v>
+        <v>0.8615554329840043</v>
       </c>
       <c r="X3">
-        <v>0.2562109951282712</v>
+        <v>0.1735832634131558</v>
       </c>
       <c r="Y3">
-        <v>-4.227472782285883</v>
+        <v>0.6879721695708485</v>
       </c>
       <c r="Z3">
-        <v>6.052829562323388</v>
+        <v>3.979492570928282</v>
       </c>
       <c r="AA3">
-        <v>-0.2538382964934227</v>
+        <v>-0.1111479745913368</v>
       </c>
       <c r="AB3">
-        <v>0.1191659936080717</v>
+        <v>0.1119058050041281</v>
       </c>
       <c r="AC3">
-        <v>-0.3730042901014944</v>
+        <v>-0.2230537795954648</v>
       </c>
       <c r="AD3">
-        <v>2922.3</v>
+        <v>2659.5</v>
       </c>
       <c r="AE3">
-        <v>230.4958269952479</v>
+        <v>3.769494145011719</v>
       </c>
       <c r="AF3">
-        <v>3152.795826995248</v>
+        <v>2663.269494145012</v>
       </c>
       <c r="AG3">
-        <v>3018.395826995248</v>
+        <v>2176.669494145012</v>
       </c>
       <c r="AH3">
-        <v>0.8047371446136037</v>
+        <v>0.7401117331905571</v>
       </c>
       <c r="AI3">
-        <v>1.298731770723801</v>
+        <v>1.337741877093137</v>
       </c>
       <c r="AJ3">
-        <v>0.7978006967863157</v>
+        <v>0.6994732581942846</v>
       </c>
       <c r="AK3">
-        <v>1.316239891710523</v>
+        <v>1.446994373426535</v>
       </c>
       <c r="AL3">
-        <v>77.90000000000001</v>
+        <v>133</v>
       </c>
       <c r="AM3">
-        <v>77.90000000000001</v>
+        <v>130.06</v>
       </c>
       <c r="AN3">
-        <v>12.87356828193833</v>
+        <v>-47.04581638068282</v>
       </c>
       <c r="AO3">
-        <v>-4.811296534017972</v>
+        <v>-1.740601503759398</v>
       </c>
       <c r="AP3">
-        <v>13.29689791627863</v>
+        <v>-38.50467882796766</v>
       </c>
       <c r="AQ3">
-        <v>-4.811296534017972</v>
+        <v>-1.779947716438567</v>
       </c>
     </row>
   </sheetData>
